--- a/sample_stock_data.xlsx
+++ b/sample_stock_data.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,36 +490,34 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45835.59823747722</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CC100</t>
+          <t>ART001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>COCA-COLA 100 VERRE</t>
+          <t>COCA-COLA 33CL</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>M112</t>
+          <t>DEPOT1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rabat Dépôt</t>
+          <t>Division A</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -526,84 +528,80 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>6.25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45840.59823747732</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CC100</t>
+          <t>ART002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COCA-COLA 100 VERRE</t>
+          <t>PEPSI 50CL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>M113</t>
+          <t>DEPOT1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Khémisset dépôt</t>
+          <t>Division A</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="G3" t="n">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Verre</t>
+          <t>Pet</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45845.59823747732</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CC100</t>
+          <t>ART001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>COCA-COLA 100 VERRE</t>
+          <t>COCA-COLA 33CL</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>M115</t>
+          <t>DEPOT2</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bousakoura dépôt</t>
+          <t>Division B</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="G4" t="n">
-        <v>1500</v>
+        <v>200</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -614,40 +612,38 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>7.5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45850.59823747734</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PP200</t>
+          <t>ART003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PEPSI 200 PET</t>
+          <t>SPRITE 33CL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>M112</t>
+          <t>DEPOT1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rabat Dépôt</t>
+          <t>Division A</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="G5" t="n">
-        <v>900</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -658,40 +654,38 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>8.33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45855.59823747735</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PP200</t>
+          <t>ART002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PEPSI 200 PET</t>
+          <t>PEPSI 50CL</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>M113</t>
+          <t>DEPOT2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Khémisset dépôt</t>
+          <t>Division B</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="G6" t="n">
-        <v>1100</v>
+        <v>250</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -702,40 +696,38 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>6.67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45860.59823747736</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SP300</t>
+          <t>ART004</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SPRITE 300 VERRE</t>
+          <t>FANTA 33CL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>M115</t>
+          <t>DEPOT3</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bousakoura dépôt</t>
+          <t>Division C</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G7" t="n">
-        <v>750</v>
+        <v>350</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -746,403 +738,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>SP300</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>SPRITE 300 VERRE</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>M112</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Rabat Dépôt</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>170</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1300</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Verre</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CC100</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>COCA-COLA 100 VERRE</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>M113</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Khémisset dépôt</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>130</v>
-      </c>
-      <c r="G9" t="n">
-        <v>950</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Verre</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-01-23</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>PP200</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PEPSI 200 PET</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>M115</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Bousakoura dépôt</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>190</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Pet</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v>7.92</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-01-24</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SP300</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SPRITE 300 VERRE</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>M112</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Rabat Dépôt</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>150</v>
-      </c>
-      <c r="G11" t="n">
-        <v>800</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Verre</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-01-25</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CC100</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>COCA-COLA 100 VERRE</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>M113</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Khémisset dépôt</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>140</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1050</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Verre</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v>5.83</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-01-26</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>PP200</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>PEPSI 200 PET</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>M115</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Bousakoura dépôt</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>180</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1400</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Pet</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-01-27</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>SP300</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>SPRITE 300 VERRE</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>M112</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Rabat Dépôt</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>160</v>
-      </c>
-      <c r="G14" t="n">
-        <v>850</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Verre</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-01-28</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CC100</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>COCA-COLA 100 VERRE</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>M113</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Khémisset dépôt</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>170</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1150</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Verre</t>
-        </is>
-      </c>
-      <c r="J15" t="n">
-        <v>7.08</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-01-29</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>PP200</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>PEPSI 200 PET</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>M115</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Bousakoura dépôt</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>150</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Pet</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v>6.25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
